--- a/工作日志/2020.4.2去遮罩表格.xlsx
+++ b/工作日志/2020.4.2去遮罩表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9780" activeTab="1"/>
+    <workbookView windowWidth="20925" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="不要参考" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <sheet name="WpsReserved_CellImgList" sheetId="7" state="veryHidden" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">不要参考!$A$1:$X$394</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">图片问题站!$A$1:$F$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">遮罩和快商通!$A$1:$O$393</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">不要参考!$A$1:$Q$394</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2057,7 +2057,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2070,17 +2070,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2094,6 +2088,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,11 +2123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2139,18 +2146,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2170,6 +2177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2179,22 +2194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2262,37 +2262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2304,7 +2274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,13 +2304,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,13 +2364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,37 +2394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,43 +2436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2453,6 +2453,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2475,22 +2490,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2499,7 +2499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2519,15 +2519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2539,6 +2530,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2561,10 +2561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2573,137 +2573,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2909,9 +2909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3345,13 +3342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="$A304:$XFD304"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3394,23 +3391,23 @@
         <v>6</v>
       </c>
       <c r="K1"/>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="75" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="14.25" spans="1:17">
+    <row r="2" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:17">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -3440,12 +3437,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="3" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="G3" s="23" t="s">
         <v>15</v>
       </c>
@@ -3468,9 +3465,9 @@
       <c r="O3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="71"/>
-    </row>
-    <row r="4" s="20" customFormat="1" ht="14.25" spans="1:15">
+      <c r="P3" s="70"/>
+    </row>
+    <row r="4" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A4" s="29" t="s">
         <v>18</v>
       </c>
@@ -3494,8 +3491,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A5" s="72" t="s">
+    <row r="5" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
+      <c r="A5" s="71" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -3523,9 +3520,9 @@
       <c r="O5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="71"/>
-    </row>
-    <row r="6" s="20" customFormat="1" ht="14.25" spans="1:15">
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="7" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>404</v>
       </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="71"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="23" t="s">
         <v>15</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="8" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A8" s="27" t="s">
         <v>25</v>
       </c>
@@ -3604,7 +3601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="9" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3628,7 +3625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="10" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A10" s="27" t="s">
         <v>30</v>
       </c>
@@ -3663,9 +3660,9 @@
       <c r="O10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="71"/>
-    </row>
-    <row r="11" s="20" customFormat="1" ht="14.25" spans="1:15">
+      <c r="P10" s="70"/>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A11" s="28" t="s">
         <v>32</v>
       </c>
@@ -3689,8 +3686,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A12" s="73" t="s">
+    <row r="12" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A12" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -3722,8 +3719,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A13" s="72" t="s">
+    <row r="13" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A13" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3761,44 +3758,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="1" spans="1:17">
+    <row r="14" s="20" customFormat="1" hidden="1" spans="1:17">
       <c r="A14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <v>4.8</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14"/>
       <c r="G14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="77" t="s">
+      <c r="H14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="76" t="s">
         <v>14</v>
       </c>
       <c r="J14"/>
-      <c r="K14" s="71">
+      <c r="K14" s="70">
         <v>404</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="71" t="s">
+      <c r="N14" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="70" t="s">
         <v>13</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="15" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
@@ -3825,8 +3822,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A16" s="72" t="s">
+    <row r="16" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A16" s="71" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3851,7 +3848,7 @@
         <v>404</v>
       </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="71"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="23" t="s">
         <v>15</v>
       </c>
@@ -3859,15 +3856,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="17" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="23" t="s">
         <v>15</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:17">
+    <row r="18" customFormat="1" ht="14.25" hidden="1" spans="1:17">
       <c r="A18" s="28" t="s">
         <v>43</v>
       </c>
@@ -3930,11 +3927,11 @@
       </c>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="19" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="70"/>
       <c r="G19" s="26" t="s">
         <v>15</v>
       </c>
@@ -3958,11 +3955,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="20" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="70"/>
       <c r="G20" s="23" t="s">
         <v>15</v>
       </c>
@@ -3986,8 +3983,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A21" s="74" t="s">
+    <row r="21" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A21" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -4019,8 +4016,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A22" s="74" t="s">
+    <row r="22" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A22" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -4049,34 +4046,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" s="70" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A23" s="70" t="s">
+    <row r="23" s="69" customFormat="1" ht="14.25" hidden="1" spans="1:16">
+      <c r="A23" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="78" t="s">
+      <c r="H23" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="77" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="54">
         <v>404</v>
       </c>
       <c r="L23" s="49"/>
-      <c r="M23" s="70">
+      <c r="M23" s="69">
         <v>1</v>
       </c>
-      <c r="N23" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="70" t="s">
+      <c r="N23" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="24" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A24" s="32" t="s">
         <v>53</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="25" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A25" s="29" t="s">
         <v>55</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="26" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="27" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A27" s="20" t="s">
         <v>57</v>
       </c>
@@ -4175,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="28" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A28" s="20" t="s">
         <v>58</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="29" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A29" s="20" t="s">
         <v>60</v>
       </c>
@@ -4226,7 +4223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="30" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A30" s="20" t="s">
         <v>61</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="31" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A31" s="20" t="s">
         <v>62</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="32" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A32" s="20" t="s">
         <v>63</v>
       </c>
@@ -4298,13 +4295,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="33" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A33" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
       <c r="G33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4328,7 +4325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="34" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A34" s="28" t="s">
         <v>65</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>404</v>
       </c>
       <c r="L34" s="40"/>
-      <c r="M34" s="71"/>
+      <c r="M34" s="70"/>
       <c r="N34" s="23" t="s">
         <v>15</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="35" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A35" s="20" t="s">
         <v>66</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="36" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A36" s="35" t="s">
         <v>67</v>
       </c>
@@ -4407,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="37" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A37" s="20" t="s">
         <v>69</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="38" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A38" s="20" t="s">
         <v>70</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="39" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="40" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A40" s="20" t="s">
         <v>72</v>
       </c>
@@ -4500,7 +4497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="41" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
@@ -4524,7 +4521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="42" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A42" s="20" t="s">
         <v>75</v>
       </c>
@@ -4548,7 +4545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="43" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A43" s="29" t="s">
         <v>76</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="44" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A44" s="20" t="s">
         <v>77</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="45" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A45" s="20" t="s">
         <v>78</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="46" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A46" s="20" t="s">
         <v>79</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="47" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A47" s="20" t="s">
         <v>80</v>
       </c>
@@ -4680,7 +4677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="48" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A48" s="20" t="s">
         <v>81</v>
       </c>
@@ -4704,7 +4701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="49" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A49" s="20" t="s">
         <v>82</v>
       </c>
@@ -4728,7 +4725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="50" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A50" s="20" t="s">
         <v>83</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="51" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A51" s="20" t="s">
         <v>84</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="52" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A52" s="20" t="s">
         <v>85</v>
       </c>
@@ -4800,8 +4797,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" s="20" customFormat="1" ht="14.25" spans="1:17">
-      <c r="A53" s="72" t="s">
+    <row r="53" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:17">
+      <c r="A53" s="71" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="23"/>
@@ -4811,8 +4808,8 @@
       <c r="D53" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
       <c r="G53" s="26" t="s">
         <v>15</v>
       </c>
@@ -4822,24 +4819,24 @@
       <c r="I53" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="71"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="40">
         <v>404</v>
       </c>
       <c r="L53" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="79" t="s">
+      <c r="M53" s="70"/>
+      <c r="N53" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="78" t="s">
         <v>15</v>
       </c>
       <c r="P53" s="23"/>
-      <c r="Q53" s="71"/>
-    </row>
-    <row r="54" s="20" customFormat="1" ht="14.25" spans="1:15">
+      <c r="Q53" s="70"/>
+    </row>
+    <row r="54" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A54" s="29" t="s">
         <v>88</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="55" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A55" s="28" t="s">
         <v>89</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="56" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A56" s="28" t="s">
         <v>90</v>
       </c>
@@ -4917,7 +4914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="57" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A57" s="28" t="s">
         <v>91</v>
       </c>
@@ -4934,7 +4931,7 @@
         <v>404</v>
       </c>
       <c r="L57" s="40"/>
-      <c r="M57" s="71"/>
+      <c r="M57" s="70"/>
       <c r="N57" s="23" t="s">
         <v>15</v>
       </c>
@@ -4945,8 +4942,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" s="20" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A58" s="72" t="s">
+    <row r="58" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
+      <c r="A58" s="71" t="s">
         <v>92</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -4981,7 +4978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="59" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A59" s="59" t="s">
         <v>94</v>
       </c>
@@ -5012,7 +5009,7 @@
       </c>
       <c r="P59" s="23"/>
     </row>
-    <row r="60" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="60" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A60" s="59" t="s">
         <v>95</v>
       </c>
@@ -5039,7 +5036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="61" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A61" s="29" t="s">
         <v>96</v>
       </c>
@@ -5066,7 +5063,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="62" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="63" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="64" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A64" s="59" t="s">
         <v>100</v>
       </c>
@@ -5141,7 +5138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="65" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="66" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="67" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -5213,7 +5210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="68" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A68" s="59" t="s">
         <v>104</v>
       </c>
@@ -5240,7 +5237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="69" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -5264,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="70" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="71" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A71" s="59" t="s">
         <v>107</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="72" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="73" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="74" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" s="20" customFormat="1" ht="14.25" spans="1:15">
+    <row r="75" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:15">
       <c r="A75" s="29" t="s">
         <v>112</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" s="20" customFormat="1" ht="14.25" spans="1:16">
+    <row r="76" s="20" customFormat="1" ht="14.25" hidden="1" spans="1:16">
       <c r="A76" s="59" t="s">
         <v>113</v>
       </c>
@@ -5442,15 +5439,15 @@
       </c>
       <c r="P76" s="23"/>
     </row>
-    <row r="77" ht="14.25" spans="1:17">
+    <row r="77" ht="14.25" hidden="1" spans="1:17">
       <c r="A77" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
       <c r="G77" s="20" t="s">
         <v>13</v>
       </c>
@@ -5460,22 +5457,22 @@
       <c r="I77" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J77" s="71"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="40">
         <v>404</v>
       </c>
       <c r="L77" s="40"/>
-      <c r="M77" s="71"/>
+      <c r="M77" s="70"/>
       <c r="N77" s="23" t="s">
         <v>15</v>
       </c>
       <c r="O77" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:16">
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
+    </row>
+    <row r="78" ht="14.25" hidden="1" spans="1:16">
       <c r="A78" s="19" t="s">
         <v>116</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:16">
+    <row r="79" ht="14.25" hidden="1" spans="1:16">
       <c r="A79" s="59" t="s">
         <v>118</v>
       </c>
@@ -5516,17 +5513,17 @@
       <c r="O79" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="71"/>
-    </row>
-    <row r="80" ht="14.25" spans="1:17">
+      <c r="P79" s="70"/>
+    </row>
+    <row r="80" ht="14.25" hidden="1" spans="1:17">
       <c r="A80" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="26" t="s">
         <v>15</v>
       </c>
@@ -5536,7 +5533,7 @@
       <c r="I80" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J80" s="71"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="40">
         <v>404</v>
       </c>
@@ -5550,18 +5547,18 @@
       <c r="O80" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:17">
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+    </row>
+    <row r="81" ht="14.25" hidden="1" spans="1:17">
       <c r="A81" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="26" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5568,7 @@
       <c r="I81" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="71"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="40">
         <v>404</v>
       </c>
@@ -5585,20 +5582,20 @@
       <c r="O81" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P81" s="71"/>
+      <c r="P81" s="70"/>
       <c r="Q81" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:17">
+    <row r="82" ht="14.25" hidden="1" spans="1:17">
       <c r="A82" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="26" t="s">
         <v>15</v>
       </c>
@@ -5608,7 +5605,7 @@
       <c r="I82" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J82" s="71"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="40">
         <v>404</v>
       </c>
@@ -5622,18 +5619,18 @@
       <c r="O82" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:17">
+      <c r="P82" s="70"/>
+      <c r="Q82" s="70"/>
+    </row>
+    <row r="83" ht="14.25" hidden="1" spans="1:17">
       <c r="A83" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
       <c r="G83" s="23" t="s">
         <v>13</v>
       </c>
@@ -5643,22 +5640,22 @@
       <c r="I83" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J83" s="71"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="40">
         <v>404</v>
       </c>
       <c r="L83" s="40"/>
-      <c r="M83" s="71"/>
+      <c r="M83" s="70"/>
       <c r="N83" s="23" t="s">
         <v>15</v>
       </c>
       <c r="O83" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-    </row>
-    <row r="84" ht="14.25" spans="1:15">
+      <c r="P83" s="70"/>
+      <c r="Q83" s="70"/>
+    </row>
+    <row r="84" ht="14.25" hidden="1" spans="1:15">
       <c r="A84" s="51" t="s">
         <v>124</v>
       </c>
@@ -5679,7 +5676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:15">
+    <row r="85" ht="14.25" hidden="1" spans="1:15">
       <c r="A85" s="59" t="s">
         <v>125</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:15">
+    <row r="86" ht="14.25" hidden="1" spans="1:15">
       <c r="A86" s="51" t="s">
         <v>126</v>
       </c>
@@ -5727,7 +5724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:15">
+    <row r="87" ht="14.25" hidden="1" spans="1:15">
       <c r="A87" s="59" t="s">
         <v>127</v>
       </c>
@@ -5754,7 +5751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:15">
+    <row r="88" ht="14.25" hidden="1" spans="1:15">
       <c r="A88" s="51" t="s">
         <v>128</v>
       </c>
@@ -5775,15 +5772,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:17">
+    <row r="89" ht="14.25" hidden="1" spans="1:17">
       <c r="A89" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
       <c r="G89" s="23" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5790,7 @@
       <c r="I89" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J89" s="71"/>
+      <c r="J89" s="70"/>
       <c r="K89" s="40">
         <v>404</v>
       </c>
@@ -5807,10 +5804,10 @@
       <c r="O89" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-    </row>
-    <row r="90" ht="14.25" spans="1:15">
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+    </row>
+    <row r="90" ht="14.25" hidden="1" spans="1:15">
       <c r="A90" s="58" t="s">
         <v>130</v>
       </c>
@@ -5834,15 +5831,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:17">
+    <row r="91" ht="14.25" hidden="1" spans="1:17">
       <c r="A91" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
       <c r="G91" s="23" t="s">
         <v>13</v>
       </c>
@@ -5852,7 +5849,7 @@
       <c r="I91" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J91" s="71"/>
+      <c r="J91" s="70"/>
       <c r="K91" s="40">
         <v>404</v>
       </c>
@@ -5866,10 +5863,10 @@
       <c r="O91" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-    </row>
-    <row r="92" ht="14.25" spans="1:16">
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+    </row>
+    <row r="92" ht="14.25" hidden="1" spans="1:16">
       <c r="A92" s="58" t="s">
         <v>132</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:15">
+    <row r="93" ht="14.25" hidden="1" spans="1:15">
       <c r="A93" s="59" t="s">
         <v>134</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:15">
+    <row r="94" ht="14.25" hidden="1" spans="1:15">
       <c r="A94" s="51" t="s">
         <v>135</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:16">
+    <row r="95" ht="14.25" hidden="1" spans="1:16">
       <c r="A95" s="51" t="s">
         <v>136</v>
       </c>
@@ -5974,7 +5971,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:16">
+    <row r="96" ht="14.25" hidden="1" spans="1:16">
       <c r="A96" s="59" t="s">
         <v>138</v>
       </c>
@@ -6006,7 +6003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:15">
+    <row r="97" ht="14.25" hidden="1" spans="1:15">
       <c r="A97" s="51" t="s">
         <v>140</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:15">
+    <row r="98" ht="14.25" hidden="1" spans="1:15">
       <c r="A98" s="59" t="s">
         <v>141</v>
       </c>
@@ -6054,7 +6051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:15">
+    <row r="99" ht="14.25" hidden="1" spans="1:15">
       <c r="A99" s="59" t="s">
         <v>142</v>
       </c>
@@ -6081,7 +6078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:15">
+    <row r="100" ht="14.25" hidden="1" spans="1:15">
       <c r="A100" s="59" t="s">
         <v>143</v>
       </c>
@@ -6108,7 +6105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:15">
+    <row r="101" ht="14.25" hidden="1" spans="1:15">
       <c r="A101" s="59" t="s">
         <v>144</v>
       </c>
@@ -6135,7 +6132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:15">
+    <row r="102" ht="14.25" hidden="1" spans="1:15">
       <c r="A102" s="51" t="s">
         <v>145</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:15">
+    <row r="103" ht="14.25" hidden="1" spans="1:15">
       <c r="A103" s="51" t="s">
         <v>146</v>
       </c>
@@ -6177,7 +6174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:15">
+    <row r="104" ht="14.25" hidden="1" spans="1:15">
       <c r="A104" s="51" t="s">
         <v>147</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:15">
+    <row r="105" ht="14.25" hidden="1" spans="1:15">
       <c r="A105" s="59" t="s">
         <v>148</v>
       </c>
@@ -6225,7 +6222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:15">
+    <row r="106" ht="14.25" hidden="1" spans="1:15">
       <c r="A106" s="59" t="s">
         <v>149</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:15">
+    <row r="107" ht="14.25" hidden="1" spans="1:15">
       <c r="A107" s="51" t="s">
         <v>150</v>
       </c>
@@ -6273,7 +6270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:15">
+    <row r="108" ht="14.25" hidden="1" spans="1:15">
       <c r="A108" s="51" t="s">
         <v>151</v>
       </c>
@@ -6297,7 +6294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:15">
+    <row r="109" ht="14.25" hidden="1" spans="1:15">
       <c r="A109" s="59" t="s">
         <v>152</v>
       </c>
@@ -6324,7 +6321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:17">
+    <row r="110" ht="14.25" hidden="1" spans="1:17">
       <c r="A110" s="51" t="s">
         <v>153</v>
       </c>
@@ -6351,7 +6348,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:17">
+    <row r="111" ht="14.25" hidden="1" spans="1:17">
       <c r="A111" s="51" t="s">
         <v>155</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:17">
+    <row r="112" ht="14.25" hidden="1" spans="1:17">
       <c r="A112" s="59" t="s">
         <v>158</v>
       </c>
@@ -6407,9 +6404,9 @@
       <c r="O112" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q112" s="71"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:17">
+      <c r="Q112" s="70"/>
+    </row>
+    <row r="113" ht="14.25" hidden="1" spans="1:17">
       <c r="A113" s="59" t="s">
         <v>159</v>
       </c>
@@ -6435,9 +6432,9 @@
       <c r="O113" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q113" s="71"/>
-    </row>
-    <row r="114" ht="14.25" spans="1:17">
+      <c r="Q113" s="70"/>
+    </row>
+    <row r="114" ht="14.25" hidden="1" spans="1:17">
       <c r="A114" s="59" t="s">
         <v>160</v>
       </c>
@@ -6463,9 +6460,9 @@
       <c r="O114" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q114" s="71"/>
-    </row>
-    <row r="115" ht="14.25" spans="1:15">
+      <c r="Q114" s="70"/>
+    </row>
+    <row r="115" ht="14.25" hidden="1" spans="1:15">
       <c r="A115" s="59" t="s">
         <v>161</v>
       </c>
@@ -6492,7 +6489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:15">
+    <row r="116" ht="14.25" hidden="1" spans="1:15">
       <c r="A116" s="59" t="s">
         <v>162</v>
       </c>
@@ -6519,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:15">
+    <row r="117" ht="14.25" hidden="1" spans="1:15">
       <c r="A117" s="51" t="s">
         <v>163</v>
       </c>
@@ -6543,7 +6540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:15">
+    <row r="118" ht="14.25" hidden="1" spans="1:15">
       <c r="A118" s="59" t="s">
         <v>164</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:15">
+    <row r="119" ht="14.25" hidden="1" spans="1:15">
       <c r="A119" s="58" t="s">
         <v>165</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:15">
+    <row r="120" ht="14.25" hidden="1" spans="1:15">
       <c r="A120" s="59" t="s">
         <v>166</v>
       </c>
@@ -6614,15 +6611,15 @@
         <v>404</v>
       </c>
       <c r="L120" s="40"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O120" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="1:15">
+      <c r="M120" s="70"/>
+      <c r="N120" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O120" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" hidden="1" spans="1:15">
       <c r="A121" s="51" t="s">
         <v>167</v>
       </c>
@@ -6646,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:15">
+    <row r="122" ht="14.25" hidden="1" spans="1:15">
       <c r="A122" s="59" t="s">
         <v>168</v>
       </c>
@@ -6663,15 +6660,15 @@
         <v>404</v>
       </c>
       <c r="L122" s="40"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O122" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:15">
+      <c r="M122" s="70"/>
+      <c r="N122" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O122" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" hidden="1" spans="1:15">
       <c r="A123" s="51" t="s">
         <v>169</v>
       </c>
@@ -6695,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:15">
+    <row r="124" ht="14.25" hidden="1" spans="1:15">
       <c r="A124" s="59" t="s">
         <v>170</v>
       </c>
@@ -6712,17 +6709,17 @@
         <v>404</v>
       </c>
       <c r="L124" s="40"/>
-      <c r="M124" s="71">
+      <c r="M124" s="70">
         <v>1</v>
       </c>
-      <c r="N124" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O124" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" spans="1:15">
+      <c r="N124" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O124" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" hidden="1" spans="1:15">
       <c r="A125" s="59" t="s">
         <v>171</v>
       </c>
@@ -6739,17 +6736,17 @@
         <v>404</v>
       </c>
       <c r="L125" s="40"/>
-      <c r="M125" s="71">
+      <c r="M125" s="70">
         <v>1</v>
       </c>
-      <c r="N125" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O125" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" spans="1:15">
+      <c r="N125" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O125" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" hidden="1" spans="1:15">
       <c r="A126" s="59" t="s">
         <v>172</v>
       </c>
@@ -6766,15 +6763,15 @@
         <v>404</v>
       </c>
       <c r="L126" s="40"/>
-      <c r="M126" s="71"/>
-      <c r="N126" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O126" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" spans="1:15">
+      <c r="M126" s="70"/>
+      <c r="N126" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O126" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" hidden="1" spans="1:15">
       <c r="A127" s="59" t="s">
         <v>173</v>
       </c>
@@ -6796,15 +6793,15 @@
       <c r="L127" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M127" s="71"/>
-      <c r="N127" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O127" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" spans="1:16">
+      <c r="M127" s="70"/>
+      <c r="N127" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O127" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" hidden="1" spans="1:16">
       <c r="A128" s="59" t="s">
         <v>174</v>
       </c>
@@ -6821,18 +6818,18 @@
         <v>404</v>
       </c>
       <c r="L128" s="40"/>
-      <c r="M128" s="71"/>
-      <c r="N128" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="O128" s="71" t="s">
+      <c r="M128" s="70"/>
+      <c r="N128" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="O128" s="70" t="s">
         <v>13</v>
       </c>
       <c r="P128" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:16">
+    <row r="129" ht="14.25" hidden="1" spans="1:16">
       <c r="A129" s="59" t="s">
         <v>177</v>
       </c>
@@ -6849,18 +6846,18 @@
         <v>404</v>
       </c>
       <c r="L129" s="40"/>
-      <c r="M129" s="71"/>
-      <c r="N129" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="O129" s="71" t="s">
+      <c r="M129" s="70"/>
+      <c r="N129" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="O129" s="70" t="s">
         <v>13</v>
       </c>
       <c r="P129" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:15">
+    <row r="130" ht="14.25" hidden="1" spans="1:15">
       <c r="A130" s="51" t="s">
         <v>178</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:16">
+    <row r="131" ht="14.25" hidden="1" spans="1:16">
       <c r="A131" s="59" t="s">
         <v>179</v>
       </c>
@@ -6901,18 +6898,18 @@
         <v>404</v>
       </c>
       <c r="L131" s="40"/>
-      <c r="M131" s="71">
+      <c r="M131" s="70">
         <v>1</v>
       </c>
-      <c r="N131" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O131" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="P131" s="71"/>
-    </row>
-    <row r="132" ht="14.25" spans="1:15">
+      <c r="N131" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O131" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="P131" s="70"/>
+    </row>
+    <row r="132" ht="14.25" hidden="1" spans="1:15">
       <c r="A132" s="59" t="s">
         <v>180</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:16">
+    <row r="133" ht="14.25" hidden="1" spans="1:16">
       <c r="A133" s="59" t="s">
         <v>181</v>
       </c>
@@ -6956,18 +6953,18 @@
         <v>404</v>
       </c>
       <c r="L133" s="40"/>
-      <c r="M133" s="71">
+      <c r="M133" s="70">
         <v>1</v>
       </c>
-      <c r="N133" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O133" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="P133" s="71"/>
-    </row>
-    <row r="134" ht="14.25" spans="1:15">
+      <c r="N133" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="P133" s="70"/>
+    </row>
+    <row r="134" ht="14.25" hidden="1" spans="1:15">
       <c r="A134" s="59" t="s">
         <v>182</v>
       </c>
@@ -6986,17 +6983,17 @@
       <c r="L134" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M134" s="71">
+      <c r="M134" s="70">
         <v>1</v>
       </c>
-      <c r="N134" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O134" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" spans="1:15">
+      <c r="N134" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O134" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" hidden="1" spans="1:15">
       <c r="A135" s="59" t="s">
         <v>183</v>
       </c>
@@ -7013,15 +7010,15 @@
         <v>404</v>
       </c>
       <c r="L135" s="40"/>
-      <c r="M135" s="71"/>
-      <c r="N135" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="O135" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" spans="1:15">
+      <c r="M135" s="70"/>
+      <c r="N135" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="O135" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" hidden="1" spans="1:15">
       <c r="A136" s="59" t="s">
         <v>184</v>
       </c>
@@ -7038,15 +7035,15 @@
         <v>404</v>
       </c>
       <c r="L136" s="40"/>
-      <c r="M136" s="71"/>
-      <c r="N136" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O136" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" spans="1:15">
+      <c r="M136" s="70"/>
+      <c r="N136" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O136" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" hidden="1" spans="1:15">
       <c r="A137" s="59" t="s">
         <v>185</v>
       </c>
@@ -7065,15 +7062,15 @@
       <c r="L137" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="71"/>
-      <c r="N137" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O137" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" spans="1:15">
+      <c r="M137" s="70"/>
+      <c r="N137" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O137" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" hidden="1" spans="1:15">
       <c r="A138" s="59" t="s">
         <v>186</v>
       </c>
@@ -7090,15 +7087,15 @@
         <v>404</v>
       </c>
       <c r="L138" s="40"/>
-      <c r="M138" s="71"/>
-      <c r="N138" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O138" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" spans="1:15">
+      <c r="M138" s="70"/>
+      <c r="N138" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O138" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" hidden="1" spans="1:15">
       <c r="A139" s="51" t="s">
         <v>187</v>
       </c>
@@ -7122,7 +7119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:15">
+    <row r="140" ht="14.25" hidden="1" spans="1:15">
       <c r="A140" s="51" t="s">
         <v>188</v>
       </c>
@@ -7146,7 +7143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:15">
+    <row r="141" ht="14.25" hidden="1" spans="1:15">
       <c r="A141" s="59" t="s">
         <v>189</v>
       </c>
@@ -7163,15 +7160,15 @@
         <v>404</v>
       </c>
       <c r="L141" s="40"/>
-      <c r="M141" s="71"/>
-      <c r="N141" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O141" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" spans="1:15">
+      <c r="M141" s="70"/>
+      <c r="N141" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" hidden="1" spans="1:15">
       <c r="A142" s="51" t="s">
         <v>190</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:15">
+    <row r="143" ht="14.25" hidden="1" spans="1:15">
       <c r="A143" s="51" t="s">
         <v>191</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:15">
+    <row r="144" ht="14.25" hidden="1" spans="1:15">
       <c r="A144" s="51" t="s">
         <v>192</v>
       </c>
@@ -7240,7 +7237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:16">
+    <row r="145" ht="14.25" hidden="1" spans="1:16">
       <c r="A145" s="51" t="s">
         <v>193</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:15">
+    <row r="146" ht="14.25" hidden="1" spans="1:15">
       <c r="A146" s="59" t="s">
         <v>195</v>
       </c>
@@ -7277,17 +7274,17 @@
       <c r="L146" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M146" s="71">
+      <c r="M146" s="70">
         <v>1</v>
       </c>
-      <c r="N146" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O146" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" spans="1:15">
+      <c r="N146" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O146" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" hidden="1" spans="1:15">
       <c r="A147" s="59" t="s">
         <v>196</v>
       </c>
@@ -7304,17 +7301,17 @@
         <v>404</v>
       </c>
       <c r="L147" s="40"/>
-      <c r="M147" s="71">
+      <c r="M147" s="70">
         <v>1</v>
       </c>
-      <c r="N147" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O147" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" spans="1:16">
+      <c r="N147" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O147" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" hidden="1" spans="1:16">
       <c r="A148" s="59" t="s">
         <v>197</v>
       </c>
@@ -7331,18 +7328,18 @@
         <v>404</v>
       </c>
       <c r="L148" s="40"/>
-      <c r="M148" s="71"/>
-      <c r="N148" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O148" s="71" t="s">
+      <c r="M148" s="70"/>
+      <c r="N148" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O148" s="70" t="s">
         <v>15</v>
       </c>
       <c r="P148" s="20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:15">
+    <row r="149" ht="14.25" hidden="1" spans="1:15">
       <c r="A149" s="59" t="s">
         <v>199</v>
       </c>
@@ -7359,15 +7356,15 @@
         <v>404</v>
       </c>
       <c r="L149" s="40"/>
-      <c r="M149" s="71"/>
-      <c r="N149" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O149" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" spans="1:15">
+      <c r="M149" s="70"/>
+      <c r="N149" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O149" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" hidden="1" spans="1:15">
       <c r="A150" s="51" t="s">
         <v>200</v>
       </c>
@@ -7391,7 +7388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:15">
+    <row r="151" ht="14.25" hidden="1" spans="1:15">
       <c r="A151" s="51" t="s">
         <v>201</v>
       </c>
@@ -7415,7 +7412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:15">
+    <row r="152" ht="14.25" hidden="1" spans="1:15">
       <c r="A152" s="51" t="s">
         <v>202</v>
       </c>
@@ -7439,7 +7436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:15">
+    <row r="153" ht="14.25" hidden="1" spans="1:15">
       <c r="A153" s="51" t="s">
         <v>203</v>
       </c>
@@ -7463,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:16">
+    <row r="154" ht="14.25" hidden="1" spans="1:16">
       <c r="A154" s="51" t="s">
         <v>204</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:15">
+    <row r="155" ht="14.25" hidden="1" spans="1:15">
       <c r="A155" s="51" t="s">
         <v>206</v>
       </c>
@@ -7502,7 +7499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:15">
+    <row r="156" ht="14.25" hidden="1" spans="1:15">
       <c r="A156" s="59" t="s">
         <v>207</v>
       </c>
@@ -7519,14 +7516,14 @@
         <v>404</v>
       </c>
       <c r="L156" s="41"/>
-      <c r="N156" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O156" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" spans="1:15">
+      <c r="N156" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O156" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" hidden="1" spans="1:15">
       <c r="A157" s="51" t="s">
         <v>208</v>
       </c>
@@ -7547,7 +7544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:16">
+    <row r="158" ht="14.25" hidden="1" spans="1:16">
       <c r="A158" s="59" t="s">
         <v>209</v>
       </c>
@@ -7566,20 +7563,20 @@
       <c r="L158" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M158" s="71">
+      <c r="M158" s="70">
         <v>1</v>
       </c>
-      <c r="N158" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O158" s="71" t="s">
+      <c r="N158" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O158" s="70" t="s">
         <v>15</v>
       </c>
       <c r="P158" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:15">
+    <row r="159" ht="14.25" hidden="1" spans="1:15">
       <c r="A159" s="51" t="s">
         <v>211</v>
       </c>
@@ -7605,7 +7602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:15">
+    <row r="160" ht="14.25" hidden="1" spans="1:15">
       <c r="A160" s="51" t="s">
         <v>212</v>
       </c>
@@ -7628,7 +7625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:15">
+    <row r="161" ht="14.25" hidden="1" spans="1:15">
       <c r="A161" s="51" t="s">
         <v>213</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:15">
+    <row r="162" ht="14.25" hidden="1" spans="1:15">
       <c r="A162" s="51" t="s">
         <v>214</v>
       </c>
@@ -7674,7 +7671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:15">
+    <row r="163" ht="14.25" hidden="1" spans="1:15">
       <c r="A163" s="59" t="s">
         <v>215</v>
       </c>
@@ -7693,15 +7690,15 @@
       <c r="L163" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M163" s="71"/>
-      <c r="N163" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O163" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" spans="1:15">
+      <c r="M163" s="70"/>
+      <c r="N163" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O163" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" hidden="1" spans="1:15">
       <c r="A164" s="59" t="s">
         <v>216</v>
       </c>
@@ -7720,17 +7717,17 @@
       <c r="L164" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M164" s="71">
+      <c r="M164" s="70">
         <v>1</v>
       </c>
-      <c r="N164" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O164" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25" spans="1:15">
+      <c r="N164" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O164" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" hidden="1" spans="1:15">
       <c r="A165" s="59" t="s">
         <v>217</v>
       </c>
@@ -7749,15 +7746,15 @@
       <c r="L165" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M165" s="71"/>
-      <c r="N165" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O165" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" spans="1:15">
+      <c r="M165" s="70"/>
+      <c r="N165" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O165" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" hidden="1" spans="1:15">
       <c r="A166" s="59" t="s">
         <v>218</v>
       </c>
@@ -7776,15 +7773,15 @@
       <c r="L166" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M166" s="71"/>
-      <c r="N166" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O166" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25" spans="1:15">
+      <c r="M166" s="70"/>
+      <c r="N166" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O166" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" hidden="1" spans="1:15">
       <c r="A167" s="59" t="s">
         <v>219</v>
       </c>
@@ -7803,17 +7800,17 @@
       <c r="L167" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M167" s="71">
+      <c r="M167" s="70">
         <v>1</v>
       </c>
-      <c r="N167" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O167" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" ht="14.25" spans="1:15">
+      <c r="N167" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O167" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" hidden="1" spans="1:15">
       <c r="A168" s="59" t="s">
         <v>220</v>
       </c>
@@ -7832,17 +7829,17 @@
       <c r="L168" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M168" s="71">
+      <c r="M168" s="70">
         <v>1</v>
       </c>
-      <c r="N168" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O168" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" spans="1:15">
+      <c r="N168" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O168" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" hidden="1" spans="1:15">
       <c r="A169" s="59" t="s">
         <v>221</v>
       </c>
@@ -7861,15 +7858,15 @@
       <c r="L169" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="71"/>
-      <c r="N169" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O169" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" spans="1:15">
+      <c r="M169" s="70"/>
+      <c r="N169" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O169" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" hidden="1" spans="1:15">
       <c r="A170" s="59" t="s">
         <v>222</v>
       </c>
@@ -7888,15 +7885,15 @@
       <c r="L170" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M170" s="71"/>
-      <c r="N170" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O170" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" spans="1:16">
+      <c r="M170" s="70"/>
+      <c r="N170" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O170" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" hidden="1" spans="1:16">
       <c r="A171" s="59" t="s">
         <v>223</v>
       </c>
@@ -7916,14 +7913,14 @@
         <v>404</v>
       </c>
       <c r="L171" s="40"/>
-      <c r="M171" s="71"/>
-      <c r="N171" s="71"/>
-      <c r="O171" s="71"/>
+      <c r="M171" s="70"/>
+      <c r="N171" s="70"/>
+      <c r="O171" s="70"/>
       <c r="P171" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:16">
+    <row r="172" ht="14.25" hidden="1" spans="1:16">
       <c r="A172" s="59" t="s">
         <v>225</v>
       </c>
@@ -7942,18 +7939,18 @@
       <c r="L172" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M172" s="71"/>
-      <c r="N172" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="O172" s="71" t="s">
+      <c r="M172" s="70"/>
+      <c r="N172" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O172" s="70" t="s">
         <v>13</v>
       </c>
       <c r="P172" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:15">
+    <row r="173" ht="14.25" hidden="1" spans="1:15">
       <c r="A173" s="59" t="s">
         <v>226</v>
       </c>
@@ -7980,7 +7977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:15">
+    <row r="174" ht="14.25" hidden="1" spans="1:15">
       <c r="A174" s="59" t="s">
         <v>227</v>
       </c>
@@ -7999,17 +7996,17 @@
       <c r="L174" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M174" s="71">
+      <c r="M174" s="70">
         <v>1</v>
       </c>
-      <c r="N174" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O174" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25" spans="1:15">
+      <c r="N174" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O174" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" hidden="1" spans="1:15">
       <c r="A175" s="59" t="s">
         <v>228</v>
       </c>
@@ -8028,15 +8025,15 @@
       <c r="L175" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M175" s="71"/>
-      <c r="N175" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O175" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" spans="1:15">
+      <c r="M175" s="70"/>
+      <c r="N175" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O175" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" hidden="1" spans="1:15">
       <c r="A176" s="59" t="s">
         <v>229</v>
       </c>
@@ -8055,15 +8052,15 @@
       <c r="L176" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M176" s="71"/>
-      <c r="N176" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O176" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" ht="14.25" spans="1:15">
+      <c r="M176" s="70"/>
+      <c r="N176" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O176" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" hidden="1" spans="1:15">
       <c r="A177" s="59" t="s">
         <v>230</v>
       </c>
@@ -8082,15 +8079,15 @@
       <c r="L177" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M177" s="71"/>
-      <c r="N177" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="O177" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" spans="1:16">
+      <c r="M177" s="70"/>
+      <c r="N177" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="O177" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" hidden="1" spans="1:16">
       <c r="A178" s="59" t="s">
         <v>231</v>
       </c>
@@ -8107,22 +8104,22 @@
         <v>404</v>
       </c>
       <c r="L178" s="40"/>
-      <c r="M178" s="71"/>
-      <c r="N178" s="71"/>
-      <c r="O178" s="71"/>
+      <c r="M178" s="70"/>
+      <c r="N178" s="70"/>
+      <c r="O178" s="70"/>
       <c r="P178" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:17">
-      <c r="A179" s="80" t="s">
+    <row r="179" ht="14.25" hidden="1" spans="1:17">
+      <c r="A179" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="B179" s="71"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
-      <c r="E179" s="71"/>
-      <c r="F179" s="71"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="70"/>
+      <c r="E179" s="70"/>
+      <c r="F179" s="70"/>
       <c r="G179" s="23" t="s">
         <v>15</v>
       </c>
@@ -8132,25 +8129,25 @@
       <c r="I179" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J179" s="71"/>
+      <c r="J179" s="70"/>
       <c r="K179" s="40">
         <v>404</v>
       </c>
       <c r="L179" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M179" s="71"/>
-      <c r="N179" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O179" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="P179" s="71"/>
-      <c r="Q179" s="71"/>
-    </row>
-    <row r="180" ht="14.25" spans="1:15">
-      <c r="A180" s="80" t="s">
+      <c r="M179" s="70"/>
+      <c r="N179" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O179" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="P179" s="70"/>
+      <c r="Q179" s="70"/>
+    </row>
+    <row r="180" ht="14.25" hidden="1" spans="1:15">
+      <c r="A180" s="79" t="s">
         <v>234</v>
       </c>
       <c r="G180" s="20" t="s">
@@ -8168,16 +8165,16 @@
       <c r="L180" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="71"/>
-      <c r="N180" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O180" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25" spans="1:16">
-      <c r="A181" s="80" t="s">
+      <c r="M180" s="70"/>
+      <c r="N180" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O180" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" hidden="1" spans="1:16">
+      <c r="A181" s="79" t="s">
         <v>235</v>
       </c>
       <c r="G181" s="20" t="s">
@@ -8205,11 +8202,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:16">
-      <c r="A182" s="80" t="s">
+    <row r="182" ht="14.25" hidden="1" spans="1:16">
+      <c r="A182" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="D182" s="71"/>
+      <c r="D182" s="70"/>
       <c r="G182" s="20" t="s">
         <v>15</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:16">
+    <row r="183" ht="14.25" hidden="1" spans="1:16">
       <c r="A183" s="23" t="s">
         <v>238</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:16">
+    <row r="184" ht="14.25" hidden="1" spans="1:16">
       <c r="A184" s="23" t="s">
         <v>240</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:16">
+    <row r="185" ht="14.25" hidden="1" spans="1:16">
       <c r="A185" s="23" t="s">
         <v>241</v>
       </c>
@@ -8338,7 +8335,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:16">
+    <row r="186" ht="14.25" hidden="1" spans="1:16">
       <c r="A186" s="51" t="s">
         <v>243</v>
       </c>
@@ -8359,7 +8356,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:17">
+    <row r="187" ht="14.25" hidden="1" spans="1:17">
       <c r="A187" s="25" t="s">
         <v>245</v>
       </c>
@@ -8369,9 +8366,9 @@
       <c r="C187" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D187" s="71"/>
-      <c r="E187" s="71"/>
-      <c r="F187" s="71"/>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="70"/>
       <c r="G187" s="23" t="s">
         <v>13</v>
       </c>
@@ -8381,7 +8378,7 @@
       <c r="I187" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J187" s="71"/>
+      <c r="J187" s="70"/>
       <c r="K187" s="40">
         <v>404</v>
       </c>
@@ -8397,10 +8394,10 @@
       <c r="O187" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P187" s="71"/>
-      <c r="Q187" s="71"/>
-    </row>
-    <row r="188" ht="14.25" spans="1:16">
+      <c r="P187" s="70"/>
+      <c r="Q187" s="70"/>
+    </row>
+    <row r="188" ht="14.25" hidden="1" spans="1:16">
       <c r="A188" s="51" t="s">
         <v>246</v>
       </c>
@@ -8421,7 +8418,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:15">
+    <row r="189" ht="14.25" hidden="1" spans="1:15">
       <c r="A189" s="51" t="s">
         <v>248</v>
       </c>
@@ -8444,7 +8441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:15">
+    <row r="190" ht="14.25" hidden="1" spans="1:15">
       <c r="A190" s="23" t="s">
         <v>249</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:15">
+    <row r="191" ht="14.25" hidden="1" spans="1:15">
       <c r="A191" s="28" t="s">
         <v>250</v>
       </c>
@@ -8502,7 +8499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:15">
+    <row r="192" ht="14.25" hidden="1" spans="1:15">
       <c r="A192" s="51" t="s">
         <v>251</v>
       </c>
@@ -8525,7 +8522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" ht="14.25" spans="1:15">
+    <row r="193" ht="14.25" hidden="1" spans="1:15">
       <c r="A193" s="28" t="s">
         <v>252</v>
       </c>
@@ -8554,7 +8551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" ht="14.25" spans="1:15">
+    <row r="194" ht="14.25" hidden="1" spans="1:15">
       <c r="A194" s="51" t="s">
         <v>253</v>
       </c>
@@ -8577,7 +8574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" ht="14.25" spans="1:15">
+    <row r="195" ht="14.25" hidden="1" spans="1:15">
       <c r="A195" s="51" t="s">
         <v>254</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:15">
+    <row r="196" ht="14.25" hidden="1" spans="1:15">
       <c r="A196" s="51" t="s">
         <v>255</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:15">
+    <row r="197" ht="14.25" hidden="1" spans="1:15">
       <c r="A197" s="51" t="s">
         <v>256</v>
       </c>
@@ -8649,7 +8646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:16">
+    <row r="198" ht="14.25" hidden="1" spans="1:16">
       <c r="A198" s="51" t="s">
         <v>257</v>
       </c>
@@ -8675,7 +8672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" ht="14.25" spans="1:16">
+    <row r="199" ht="14.25" hidden="1" spans="1:16">
       <c r="A199" s="51" t="s">
         <v>258</v>
       </c>
@@ -8704,7 +8701,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="200" ht="14.25" spans="1:16">
+    <row r="200" ht="14.25" hidden="1" spans="1:16">
       <c r="A200" s="51" t="s">
         <v>259</v>
       </c>
@@ -8728,7 +8725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:16">
+    <row r="201" ht="14.25" hidden="1" spans="1:16">
       <c r="A201" s="51" t="s">
         <v>260</v>
       </c>
@@ -8757,7 +8754,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:16">
+    <row r="202" ht="14.25" hidden="1" spans="1:16">
       <c r="A202" s="51" t="s">
         <v>261</v>
       </c>
@@ -8783,7 +8780,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:16">
+    <row r="203" ht="14.25" hidden="1" spans="1:16">
       <c r="A203" s="51" t="s">
         <v>262</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:16">
+    <row r="204" ht="14.25" hidden="1" spans="1:16">
       <c r="A204" s="51" t="s">
         <v>263</v>
       </c>
@@ -8835,7 +8832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:16">
+    <row r="205" ht="14.25" hidden="1" spans="1:16">
       <c r="A205" s="51" t="s">
         <v>264</v>
       </c>
@@ -8861,7 +8858,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:16">
+    <row r="206" ht="14.25" hidden="1" spans="1:16">
       <c r="A206" s="51" t="s">
         <v>265</v>
       </c>
@@ -8890,7 +8887,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" ht="14.25" spans="1:16">
+    <row r="207" ht="14.25" hidden="1" spans="1:16">
       <c r="A207" s="51" t="s">
         <v>266</v>
       </c>
@@ -8916,7 +8913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="208" ht="14.25" spans="1:16">
+    <row r="208" ht="14.25" hidden="1" spans="1:16">
       <c r="A208" s="51" t="s">
         <v>268</v>
       </c>
@@ -8942,7 +8939,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:16">
+    <row r="209" ht="14.25" hidden="1" spans="1:16">
       <c r="A209" s="51" t="s">
         <v>269</v>
       </c>
@@ -8966,7 +8963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:16">
+    <row r="210" ht="14.25" hidden="1" spans="1:16">
       <c r="A210" s="51" t="s">
         <v>270</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:15">
+    <row r="211" ht="14.25" hidden="1" spans="1:15">
       <c r="A211" s="51" t="s">
         <v>271</v>
       </c>
@@ -9018,7 +9015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:16">
+    <row r="212" ht="14.25" hidden="1" spans="1:16">
       <c r="A212" s="51" t="s">
         <v>272</v>
       </c>
@@ -9044,7 +9041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:15">
+    <row r="213" ht="14.25" hidden="1" spans="1:15">
       <c r="A213" s="51" t="s">
         <v>273</v>
       </c>
@@ -9067,7 +9064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:16">
+    <row r="214" ht="14.25" hidden="1" spans="1:16">
       <c r="A214" s="51" t="s">
         <v>274</v>
       </c>
@@ -9096,7 +9093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215" ht="14.25" spans="1:16">
+    <row r="215" ht="14.25" hidden="1" spans="1:16">
       <c r="A215" s="51" t="s">
         <v>275</v>
       </c>
@@ -9122,7 +9119,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="216" ht="14.25" spans="1:16">
+    <row r="216" ht="14.25" hidden="1" spans="1:16">
       <c r="A216" s="51" t="s">
         <v>276</v>
       </c>
@@ -9146,7 +9143,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="217" ht="14.25" spans="1:15">
+    <row r="217" ht="14.25" hidden="1" spans="1:15">
       <c r="A217" s="51" t="s">
         <v>277</v>
       </c>
@@ -9169,7 +9166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" ht="14.25" spans="1:16">
+    <row r="218" ht="14.25" hidden="1" spans="1:16">
       <c r="A218" s="51" t="s">
         <v>278</v>
       </c>
@@ -9187,7 +9184,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="219" ht="14.25" spans="1:16">
+    <row r="219" ht="14.25" hidden="1" spans="1:16">
       <c r="A219" s="51" t="s">
         <v>280</v>
       </c>
@@ -9214,7 +9211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:16">
+    <row r="220" ht="14.25" hidden="1" spans="1:16">
       <c r="A220" s="51" t="s">
         <v>281</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" ht="14.25" spans="1:16">
+    <row r="221" ht="14.25" hidden="1" spans="1:16">
       <c r="A221" s="51" t="s">
         <v>283</v>
       </c>
@@ -9262,7 +9259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" ht="14.25" spans="1:16">
+    <row r="222" ht="14.25" hidden="1" spans="1:16">
       <c r="A222" s="51" t="s">
         <v>284</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="223" ht="14.25" spans="1:16">
+    <row r="223" ht="14.25" hidden="1" spans="1:16">
       <c r="A223" s="51" t="s">
         <v>285</v>
       </c>
@@ -9314,7 +9311,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="224" ht="14.25" spans="1:16">
+    <row r="224" ht="14.25" hidden="1" spans="1:16">
       <c r="A224" s="51" t="s">
         <v>286</v>
       </c>
@@ -9338,7 +9335,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" ht="14.25" spans="1:16">
+    <row r="225" ht="14.25" hidden="1" spans="1:16">
       <c r="A225" s="51" t="s">
         <v>287</v>
       </c>
@@ -9365,7 +9362,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="226" ht="14.25" spans="1:16">
+    <row r="226" ht="14.25" hidden="1" spans="1:16">
       <c r="A226" s="51" t="s">
         <v>288</v>
       </c>
@@ -9392,7 +9389,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" ht="14.25" spans="1:15">
+    <row r="227" ht="14.25" hidden="1" spans="1:15">
       <c r="A227" s="51" t="s">
         <v>289</v>
       </c>
@@ -9415,7 +9412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" ht="14.25" spans="1:16">
+    <row r="228" ht="14.25" hidden="1" spans="1:16">
       <c r="A228" s="51" t="s">
         <v>290</v>
       </c>
@@ -9442,7 +9439,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="229" ht="14.25" spans="1:15">
+    <row r="229" ht="14.25" hidden="1" spans="1:15">
       <c r="A229" s="51" t="s">
         <v>291</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" ht="14.25" spans="1:16">
+    <row r="230" ht="14.25" hidden="1" spans="1:16">
       <c r="A230" s="51" t="s">
         <v>292</v>
       </c>
@@ -9489,7 +9486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="231" ht="14.25" spans="1:16">
+    <row r="231" ht="14.25" hidden="1" spans="1:16">
       <c r="A231" s="51" t="s">
         <v>293</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="232" ht="14.25" spans="1:15">
+    <row r="232" ht="14.25" hidden="1" spans="1:15">
       <c r="A232" s="51" t="s">
         <v>295</v>
       </c>
@@ -9536,7 +9533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" ht="14.25" spans="1:16">
+    <row r="233" ht="14.25" hidden="1" spans="1:16">
       <c r="A233" s="51" t="s">
         <v>296</v>
       </c>
@@ -9560,7 +9557,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" ht="14.25" spans="1:16">
+    <row r="234" ht="14.25" hidden="1" spans="1:16">
       <c r="A234" s="51" t="s">
         <v>297</v>
       </c>
@@ -9584,7 +9581,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="235" ht="14.25" spans="1:16">
+    <row r="235" ht="14.25" hidden="1" spans="1:16">
       <c r="A235" s="51" t="s">
         <v>298</v>
       </c>
@@ -9608,7 +9605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" ht="14.25" spans="1:16">
+    <row r="236" ht="14.25" hidden="1" spans="1:16">
       <c r="A236" s="51" t="s">
         <v>299</v>
       </c>
@@ -9635,7 +9632,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" ht="14.25" spans="1:16">
+    <row r="237" ht="14.25" hidden="1" spans="1:16">
       <c r="A237" s="51" t="s">
         <v>301</v>
       </c>
@@ -9659,7 +9656,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="238" ht="14.25" spans="1:16">
+    <row r="238" ht="14.25" hidden="1" spans="1:16">
       <c r="A238" s="51" t="s">
         <v>302</v>
       </c>
@@ -9686,7 +9683,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="239" ht="14.25" spans="1:15">
+    <row r="239" ht="14.25" hidden="1" spans="1:15">
       <c r="A239" s="51" t="s">
         <v>303</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" ht="14.25" spans="1:15">
+    <row r="240" ht="14.25" hidden="1" spans="1:15">
       <c r="A240" s="51" t="s">
         <v>304</v>
       </c>
@@ -9732,7 +9729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" ht="14.25" spans="1:15">
+    <row r="241" ht="14.25" hidden="1" spans="1:15">
       <c r="A241" s="51" t="s">
         <v>305</v>
       </c>
@@ -9755,7 +9752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" ht="14.25" spans="1:15">
+    <row r="242" ht="14.25" hidden="1" spans="1:15">
       <c r="A242" s="51" t="s">
         <v>306</v>
       </c>
@@ -9778,7 +9775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" ht="14.25" spans="1:16">
+    <row r="243" ht="14.25" hidden="1" spans="1:16">
       <c r="A243" s="51" t="s">
         <v>307</v>
       </c>
@@ -9805,7 +9802,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="244" ht="14.25" spans="1:16">
+    <row r="244" ht="14.25" hidden="1" spans="1:16">
       <c r="A244" s="51" t="s">
         <v>309</v>
       </c>
@@ -9823,7 +9820,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" ht="14.25" spans="1:16">
+    <row r="245" ht="14.25" hidden="1" spans="1:16">
       <c r="A245" s="51" t="s">
         <v>311</v>
       </c>
@@ -9847,7 +9844,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" ht="14.25" spans="1:16">
+    <row r="246" ht="14.25" hidden="1" spans="1:16">
       <c r="A246" s="51" t="s">
         <v>312</v>
       </c>
@@ -9873,7 +9870,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" ht="14.25" spans="1:15">
+    <row r="247" ht="14.25" hidden="1" spans="1:15">
       <c r="A247" s="51" t="s">
         <v>313</v>
       </c>
@@ -9899,7 +9896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" ht="14.25" spans="1:16">
+    <row r="248" ht="14.25" hidden="1" spans="1:16">
       <c r="A248" s="51" t="s">
         <v>314</v>
       </c>
@@ -9917,7 +9914,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="249" ht="14.25" spans="1:15">
+    <row r="249" ht="14.25" hidden="1" spans="1:15">
       <c r="A249" s="51" t="s">
         <v>316</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" ht="14.25" spans="1:15">
+    <row r="250" ht="14.25" hidden="1" spans="1:15">
       <c r="A250" s="51" t="s">
         <v>317</v>
       </c>
@@ -9963,11 +9960,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" ht="14.25" spans="1:15">
+    <row r="251" ht="14.25" hidden="1" spans="1:15">
       <c r="A251" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="D251" s="71"/>
+      <c r="D251" s="70"/>
       <c r="G251" s="23" t="s">
         <v>15</v>
       </c>
@@ -9990,7 +9987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" ht="14.25" spans="1:16">
+    <row r="252" ht="14.25" hidden="1" spans="1:16">
       <c r="A252" s="59" t="s">
         <v>319</v>
       </c>
@@ -10019,7 +10016,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="253" ht="14.25" spans="1:16">
+    <row r="253" ht="14.25" hidden="1" spans="1:16">
       <c r="A253" s="51" t="s">
         <v>321</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="254" ht="14.25" spans="1:15">
+    <row r="254" ht="14.25" hidden="1" spans="1:15">
       <c r="A254" s="59" t="s">
         <v>323</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" ht="14.25" spans="1:15">
+    <row r="255" ht="14.25" hidden="1" spans="1:15">
       <c r="A255" s="51" t="s">
         <v>324</v>
       </c>
@@ -10095,7 +10092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" ht="14.25" spans="1:16">
+    <row r="256" ht="14.25" hidden="1" spans="1:16">
       <c r="A256" s="51" t="s">
         <v>325</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="257" ht="14.25" spans="1:16">
+    <row r="257" ht="14.25" hidden="1" spans="1:16">
       <c r="A257" s="51" t="s">
         <v>327</v>
       </c>
@@ -10137,7 +10134,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:16">
+    <row r="258" ht="14.25" hidden="1" spans="1:16">
       <c r="A258" s="51" t="s">
         <v>328</v>
       </c>
@@ -10161,7 +10158,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="259" ht="14.25" spans="1:16">
+    <row r="259" ht="14.25" hidden="1" spans="1:16">
       <c r="A259" s="51" t="s">
         <v>329</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="260" ht="14.25" spans="1:15">
+    <row r="260" ht="14.25" hidden="1" spans="1:15">
       <c r="A260" s="58" t="s">
         <v>330</v>
       </c>
@@ -10214,7 +10211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" ht="14.25" spans="1:15">
+    <row r="261" ht="14.25" hidden="1" spans="1:15">
       <c r="A261" s="59" t="s">
         <v>331</v>
       </c>
@@ -10243,7 +10240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" ht="14.25" spans="1:15">
+    <row r="262" ht="14.25" hidden="1" spans="1:15">
       <c r="A262" s="51" t="s">
         <v>332</v>
       </c>
@@ -10269,7 +10266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" ht="14.25" spans="1:16">
+    <row r="263" ht="14.25" hidden="1" spans="1:16">
       <c r="A263" s="58" t="s">
         <v>333</v>
       </c>
@@ -10298,7 +10295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" ht="14.25" spans="1:15">
+    <row r="264" ht="14.25" hidden="1" spans="1:15">
       <c r="A264" s="59" t="s">
         <v>334</v>
       </c>
@@ -10327,7 +10324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" ht="14.25" spans="1:15">
+    <row r="265" ht="14.25" hidden="1" spans="1:15">
       <c r="A265" s="59" t="s">
         <v>335</v>
       </c>
@@ -10356,7 +10353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" ht="14.25" spans="1:15">
+    <row r="266" ht="14.25" hidden="1" spans="1:15">
       <c r="A266" s="51" t="s">
         <v>336</v>
       </c>
@@ -10379,7 +10376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" ht="14.25" spans="1:15">
+    <row r="267" ht="14.25" hidden="1" spans="1:15">
       <c r="A267" s="59" t="s">
         <v>337</v>
       </c>
@@ -10405,7 +10402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" ht="14.25" spans="1:15">
+    <row r="268" ht="14.25" hidden="1" spans="1:15">
       <c r="A268" s="58" t="s">
         <v>338</v>
       </c>
@@ -10434,7 +10431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" ht="14.25" spans="1:16">
+    <row r="269" ht="14.25" hidden="1" spans="1:16">
       <c r="A269" s="59" t="s">
         <v>339</v>
       </c>
@@ -10466,7 +10463,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="270" ht="14.25" spans="1:16">
+    <row r="270" ht="14.25" hidden="1" spans="1:16">
       <c r="A270" s="51" t="s">
         <v>341</v>
       </c>
@@ -10490,7 +10487,7 @@
       </c>
       <c r="P270" s="35"/>
     </row>
-    <row r="271" ht="14.25" spans="1:17">
+    <row r="271" ht="14.25" hidden="1" spans="1:17">
       <c r="A271" s="59" t="s">
         <v>342</v>
       </c>
@@ -10523,7 +10520,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="272" ht="14.25" spans="1:17">
+    <row r="272" ht="14.25" hidden="1" spans="1:17">
       <c r="A272" s="59" t="s">
         <v>344</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="273" ht="14.25" spans="1:16">
+    <row r="273" ht="14.25" hidden="1" spans="1:16">
       <c r="A273" s="59" t="s">
         <v>346</v>
       </c>
@@ -10586,7 +10583,7 @@
       </c>
       <c r="P273" s="35"/>
     </row>
-    <row r="274" ht="14.25" spans="1:16">
+    <row r="274" ht="14.25" hidden="1" spans="1:16">
       <c r="A274" s="59" t="s">
         <v>347</v>
       </c>
@@ -10618,7 +10615,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="275" ht="14.25" spans="1:16">
+    <row r="275" ht="14.25" hidden="1" spans="1:16">
       <c r="A275" s="59" t="s">
         <v>348</v>
       </c>
@@ -10650,7 +10647,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="276" ht="14.25" spans="1:16">
+    <row r="276" ht="14.25" hidden="1" spans="1:16">
       <c r="A276" s="59" t="s">
         <v>350</v>
       </c>
@@ -10682,7 +10679,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="277" ht="14.25" spans="1:16">
+    <row r="277" ht="14.25" hidden="1" spans="1:16">
       <c r="A277" s="59" t="s">
         <v>352</v>
       </c>
@@ -10717,7 +10714,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" ht="14.25" spans="1:16">
+    <row r="278" ht="14.25" hidden="1" spans="1:16">
       <c r="A278" s="58" t="s">
         <v>355</v>
       </c>
@@ -10738,7 +10735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="279" ht="14.25" spans="1:16">
+    <row r="279" ht="14.25" hidden="1" spans="1:16">
       <c r="A279" s="51" t="s">
         <v>358</v>
       </c>
@@ -10765,7 +10762,7 @@
       </c>
       <c r="P279" s="35"/>
     </row>
-    <row r="280" ht="14.25" spans="1:16">
+    <row r="280" ht="14.25" hidden="1" spans="1:16">
       <c r="A280" s="51" t="s">
         <v>359</v>
       </c>
@@ -10789,7 +10786,7 @@
       </c>
       <c r="P280" s="35"/>
     </row>
-    <row r="281" ht="14.25" spans="1:16">
+    <row r="281" ht="14.25" hidden="1" spans="1:16">
       <c r="A281" s="51" t="s">
         <v>360</v>
       </c>
@@ -10813,7 +10810,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="282" ht="14.25" spans="1:16">
+    <row r="282" ht="14.25" hidden="1" spans="1:16">
       <c r="A282" s="51" t="s">
         <v>362</v>
       </c>
@@ -10837,7 +10834,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="283" ht="14.25" spans="1:16">
+    <row r="283" ht="14.25" hidden="1" spans="1:16">
       <c r="A283" s="51" t="s">
         <v>363</v>
       </c>
@@ -10861,7 +10858,7 @@
       </c>
       <c r="P283" s="35"/>
     </row>
-    <row r="284" ht="14.25" spans="1:16">
+    <row r="284" ht="14.25" hidden="1" spans="1:16">
       <c r="A284" s="51" t="s">
         <v>364</v>
       </c>
@@ -10885,7 +10882,7 @@
       </c>
       <c r="P284" s="35"/>
     </row>
-    <row r="285" ht="14.25" spans="1:16">
+    <row r="285" ht="14.25" hidden="1" spans="1:16">
       <c r="A285" s="59" t="s">
         <v>365</v>
       </c>
@@ -10912,7 +10909,7 @@
       </c>
       <c r="P285" s="35"/>
     </row>
-    <row r="286" ht="14.25" spans="1:16">
+    <row r="286" ht="14.25" hidden="1" spans="1:16">
       <c r="A286" s="51" t="s">
         <v>366</v>
       </c>
@@ -10938,7 +10935,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="287" ht="14.25" spans="1:16">
+    <row r="287" ht="14.25" hidden="1" spans="1:16">
       <c r="A287" s="51" t="s">
         <v>368</v>
       </c>
@@ -10967,7 +10964,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="288" ht="14.25" spans="1:16">
+    <row r="288" ht="14.25" hidden="1" spans="1:16">
       <c r="A288" s="51" t="s">
         <v>370</v>
       </c>
@@ -10994,7 +10991,7 @@
       </c>
       <c r="P288" s="35"/>
     </row>
-    <row r="289" ht="14.25" spans="1:16">
+    <row r="289" ht="14.25" hidden="1" spans="1:16">
       <c r="A289" s="51" t="s">
         <v>371</v>
       </c>
@@ -11020,7 +11017,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="290" ht="14.25" spans="1:16">
+    <row r="290" ht="14.25" hidden="1" spans="1:16">
       <c r="A290" s="51" t="s">
         <v>373</v>
       </c>
@@ -11044,7 +11041,7 @@
       </c>
       <c r="P290" s="35"/>
     </row>
-    <row r="291" ht="14.25" spans="1:16">
+    <row r="291" ht="14.25" hidden="1" spans="1:16">
       <c r="A291" s="51" t="s">
         <v>374</v>
       </c>
@@ -11068,7 +11065,7 @@
       </c>
       <c r="P291" s="35"/>
     </row>
-    <row r="292" ht="14.25" spans="1:16">
+    <row r="292" ht="14.25" hidden="1" spans="1:16">
       <c r="A292" s="51" t="s">
         <v>375</v>
       </c>
@@ -11094,7 +11091,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="293" ht="14.25" spans="1:16">
+    <row r="293" ht="14.25" hidden="1" spans="1:16">
       <c r="A293" s="51" t="s">
         <v>376</v>
       </c>
@@ -11121,7 +11118,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="294" ht="14.25" spans="1:16">
+    <row r="294" ht="14.25" hidden="1" spans="1:16">
       <c r="A294" s="51" t="s">
         <v>378</v>
       </c>
@@ -11147,7 +11144,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="295" ht="14.25" spans="1:16">
+    <row r="295" ht="14.25" hidden="1" spans="1:16">
       <c r="A295" s="59" t="s">
         <v>380</v>
       </c>
@@ -11177,7 +11174,7 @@
       </c>
       <c r="P295" s="35"/>
     </row>
-    <row r="296" ht="14.25" spans="1:16">
+    <row r="296" ht="14.25" hidden="1" spans="1:16">
       <c r="A296" s="51" t="s">
         <v>381</v>
       </c>
@@ -11201,7 +11198,7 @@
       </c>
       <c r="P296" s="35"/>
     </row>
-    <row r="297" ht="14.25" spans="1:16">
+    <row r="297" ht="14.25" hidden="1" spans="1:16">
       <c r="A297" s="51" t="s">
         <v>382</v>
       </c>
@@ -11228,7 +11225,7 @@
       </c>
       <c r="P297" s="35"/>
     </row>
-    <row r="298" ht="14.25" spans="1:16">
+    <row r="298" ht="14.25" hidden="1" spans="1:16">
       <c r="A298" s="51" t="s">
         <v>383</v>
       </c>
@@ -11252,7 +11249,7 @@
       </c>
       <c r="P298" s="35"/>
     </row>
-    <row r="299" ht="14.25" spans="1:16">
+    <row r="299" ht="14.25" hidden="1" spans="1:16">
       <c r="A299" s="51" t="s">
         <v>384</v>
       </c>
@@ -11276,7 +11273,7 @@
       </c>
       <c r="P299" s="35"/>
     </row>
-    <row r="300" ht="14.25" spans="1:16">
+    <row r="300" ht="14.25" hidden="1" spans="1:16">
       <c r="A300" s="59" t="s">
         <v>385</v>
       </c>
@@ -11306,7 +11303,7 @@
       </c>
       <c r="P300" s="35"/>
     </row>
-    <row r="301" ht="14.25" spans="1:16">
+    <row r="301" ht="14.25" hidden="1" spans="1:16">
       <c r="A301" s="36" t="s">
         <v>386</v>
       </c>
@@ -11333,7 +11330,7 @@
       </c>
       <c r="P301" s="35"/>
     </row>
-    <row r="302" ht="14.25" spans="1:16">
+    <row r="302" ht="14.25" hidden="1" spans="1:16">
       <c r="A302" s="51" t="s">
         <v>388</v>
       </c>
@@ -11357,7 +11354,7 @@
       </c>
       <c r="P302" s="35"/>
     </row>
-    <row r="303" ht="14.25" spans="1:16">
+    <row r="303" ht="14.25" hidden="1" spans="1:16">
       <c r="A303" s="51" t="s">
         <v>389</v>
       </c>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="P304" s="35"/>
     </row>
-    <row r="305" ht="14.25" spans="1:16">
+    <row r="305" ht="14.25" hidden="1" spans="1:16">
       <c r="A305" s="51" t="s">
         <v>391</v>
       </c>
@@ -11435,7 +11432,7 @@
       </c>
       <c r="P305" s="35"/>
     </row>
-    <row r="306" ht="14.25" spans="1:16">
+    <row r="306" ht="14.25" hidden="1" spans="1:16">
       <c r="A306" s="51" t="s">
         <v>392</v>
       </c>
@@ -11459,7 +11456,7 @@
       </c>
       <c r="P306" s="35"/>
     </row>
-    <row r="307" ht="14.25" spans="1:16">
+    <row r="307" ht="14.25" hidden="1" spans="1:16">
       <c r="A307" s="51" t="s">
         <v>393</v>
       </c>
@@ -11483,7 +11480,7 @@
       </c>
       <c r="P307" s="35"/>
     </row>
-    <row r="308" ht="14.25" spans="1:16">
+    <row r="308" ht="14.25" hidden="1" spans="1:16">
       <c r="A308" s="59" t="s">
         <v>394</v>
       </c>
@@ -11513,7 +11510,7 @@
       </c>
       <c r="P308" s="35"/>
     </row>
-    <row r="309" ht="14.25" spans="1:16">
+    <row r="309" ht="14.25" hidden="1" spans="1:16">
       <c r="A309" s="51" t="s">
         <v>395</v>
       </c>
@@ -11537,7 +11534,7 @@
       </c>
       <c r="P309" s="35"/>
     </row>
-    <row r="310" ht="14.25" spans="1:16">
+    <row r="310" ht="14.25" hidden="1" spans="1:16">
       <c r="A310" s="51" t="s">
         <v>396</v>
       </c>
@@ -11561,7 +11558,7 @@
       </c>
       <c r="P310" s="35"/>
     </row>
-    <row r="311" ht="14.25" spans="1:16">
+    <row r="311" ht="14.25" hidden="1" spans="1:16">
       <c r="A311" s="51" t="s">
         <v>397</v>
       </c>
@@ -11585,7 +11582,7 @@
       </c>
       <c r="P311" s="35"/>
     </row>
-    <row r="312" ht="14.25" spans="1:16">
+    <row r="312" ht="14.25" hidden="1" spans="1:16">
       <c r="A312" s="51" t="s">
         <v>398</v>
       </c>
@@ -11609,7 +11606,7 @@
       </c>
       <c r="P312" s="35"/>
     </row>
-    <row r="313" ht="14.25" spans="1:16">
+    <row r="313" ht="14.25" hidden="1" spans="1:16">
       <c r="A313" s="51" t="s">
         <v>399</v>
       </c>
@@ -11633,7 +11630,7 @@
       </c>
       <c r="P313" s="35"/>
     </row>
-    <row r="314" ht="14.25" spans="1:16">
+    <row r="314" ht="14.25" hidden="1" spans="1:16">
       <c r="A314" s="51" t="s">
         <v>400</v>
       </c>
@@ -11657,7 +11654,7 @@
       </c>
       <c r="P314" s="35"/>
     </row>
-    <row r="315" ht="14.25" spans="1:16">
+    <row r="315" ht="14.25" hidden="1" spans="1:16">
       <c r="A315" s="51" t="s">
         <v>401</v>
       </c>
@@ -11681,7 +11678,7 @@
       </c>
       <c r="P315" s="35"/>
     </row>
-    <row r="316" ht="14.25" spans="1:16">
+    <row r="316" ht="14.25" hidden="1" spans="1:16">
       <c r="A316" s="59" t="s">
         <v>402</v>
       </c>
@@ -11711,7 +11708,7 @@
       </c>
       <c r="P316" s="35"/>
     </row>
-    <row r="317" ht="14.25" spans="1:16">
+    <row r="317" ht="14.25" hidden="1" spans="1:16">
       <c r="A317" s="59" t="s">
         <v>403</v>
       </c>
@@ -11741,7 +11738,7 @@
       </c>
       <c r="P317" s="35"/>
     </row>
-    <row r="318" ht="14.25" spans="1:16">
+    <row r="318" ht="14.25" hidden="1" spans="1:16">
       <c r="A318" s="51" t="s">
         <v>404</v>
       </c>
@@ -11768,7 +11765,7 @@
       </c>
       <c r="P318" s="35"/>
     </row>
-    <row r="319" ht="14.25" spans="1:16">
+    <row r="319" ht="14.25" hidden="1" spans="1:16">
       <c r="A319" s="51" t="s">
         <v>405</v>
       </c>
@@ -11795,7 +11792,7 @@
       </c>
       <c r="P319" s="35"/>
     </row>
-    <row r="320" ht="14.25" spans="1:16">
+    <row r="320" ht="14.25" hidden="1" spans="1:16">
       <c r="A320" s="59" t="s">
         <v>406</v>
       </c>
@@ -11825,7 +11822,7 @@
       </c>
       <c r="P320" s="35"/>
     </row>
-    <row r="321" ht="14.25" spans="1:16">
+    <row r="321" ht="14.25" hidden="1" spans="1:16">
       <c r="A321" s="51" t="s">
         <v>407</v>
       </c>
@@ -11849,7 +11846,7 @@
       </c>
       <c r="P321" s="35"/>
     </row>
-    <row r="322" ht="14.25" spans="1:16">
+    <row r="322" ht="14.25" hidden="1" spans="1:16">
       <c r="A322" s="51" t="s">
         <v>408</v>
       </c>
@@ -11873,7 +11870,7 @@
       </c>
       <c r="P322" s="35"/>
     </row>
-    <row r="323" ht="14.25" spans="1:16">
+    <row r="323" ht="14.25" hidden="1" spans="1:16">
       <c r="A323" s="51" t="s">
         <v>409</v>
       </c>
@@ -11898,7 +11895,7 @@
       </c>
       <c r="P323" s="35"/>
     </row>
-    <row r="324" ht="14.25" spans="1:16">
+    <row r="324" ht="14.25" hidden="1" spans="1:16">
       <c r="A324" s="51" t="s">
         <v>410</v>
       </c>
@@ -11925,7 +11922,7 @@
       </c>
       <c r="P324" s="35"/>
     </row>
-    <row r="325" ht="14.25" spans="1:16">
+    <row r="325" ht="14.25" hidden="1" spans="1:16">
       <c r="A325" s="59" t="s">
         <v>411</v>
       </c>
@@ -11955,7 +11952,7 @@
       </c>
       <c r="P325" s="35"/>
     </row>
-    <row r="326" ht="14.25" spans="1:16">
+    <row r="326" ht="14.25" hidden="1" spans="1:16">
       <c r="A326" s="59" t="s">
         <v>412</v>
       </c>
@@ -11985,7 +11982,7 @@
       </c>
       <c r="P326" s="35"/>
     </row>
-    <row r="327" ht="14.25" spans="1:16">
+    <row r="327" ht="14.25" hidden="1" spans="1:16">
       <c r="A327" s="51" t="s">
         <v>413</v>
       </c>
@@ -12009,7 +12006,7 @@
       </c>
       <c r="P327" s="35"/>
     </row>
-    <row r="328" ht="14.25" spans="1:16">
+    <row r="328" ht="14.25" hidden="1" spans="1:16">
       <c r="A328" s="51" t="s">
         <v>414</v>
       </c>
@@ -12033,7 +12030,7 @@
       </c>
       <c r="P328" s="35"/>
     </row>
-    <row r="329" ht="14.25" spans="1:16">
+    <row r="329" ht="14.25" hidden="1" spans="1:16">
       <c r="A329" s="59" t="s">
         <v>415</v>
       </c>
@@ -12063,7 +12060,7 @@
       </c>
       <c r="P329" s="35"/>
     </row>
-    <row r="330" ht="14.25" spans="1:16">
+    <row r="330" ht="14.25" hidden="1" spans="1:16">
       <c r="A330" s="51" t="s">
         <v>416</v>
       </c>
@@ -12087,7 +12084,7 @@
       </c>
       <c r="P330" s="35"/>
     </row>
-    <row r="331" ht="14.25" spans="1:16">
+    <row r="331" ht="14.25" hidden="1" spans="1:16">
       <c r="A331" s="59" t="s">
         <v>417</v>
       </c>
@@ -12119,7 +12116,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="332" ht="14.25" spans="1:16">
+    <row r="332" ht="14.25" hidden="1" spans="1:16">
       <c r="A332" s="59" t="s">
         <v>419</v>
       </c>
@@ -12151,7 +12148,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="333" ht="14.25" spans="1:16">
+    <row r="333" ht="14.25" hidden="1" spans="1:16">
       <c r="A333" s="51" t="s">
         <v>420</v>
       </c>
@@ -12175,7 +12172,7 @@
       </c>
       <c r="P333" s="35"/>
     </row>
-    <row r="334" ht="14.25" spans="1:16">
+    <row r="334" ht="14.25" hidden="1" spans="1:16">
       <c r="A334" s="51" t="s">
         <v>421</v>
       </c>
@@ -12199,7 +12196,7 @@
       </c>
       <c r="P334" s="35"/>
     </row>
-    <row r="335" ht="14.25" spans="1:16">
+    <row r="335" ht="14.25" hidden="1" spans="1:16">
       <c r="A335" s="51" t="s">
         <v>422</v>
       </c>
@@ -12223,7 +12220,7 @@
       </c>
       <c r="P335" s="35"/>
     </row>
-    <row r="336" ht="14.25" spans="1:16">
+    <row r="336" ht="14.25" hidden="1" spans="1:16">
       <c r="A336" s="59" t="s">
         <v>423</v>
       </c>
@@ -12255,7 +12252,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="337" ht="14.25" spans="1:16">
+    <row r="337" ht="14.25" hidden="1" spans="1:16">
       <c r="A337" s="59" t="s">
         <v>424</v>
       </c>
@@ -12287,7 +12284,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="338" s="70" customFormat="1" ht="14.25" spans="1:24">
+    <row r="338" s="69" customFormat="1" ht="14.25" hidden="1" spans="1:24">
       <c r="A338" s="59" t="s">
         <v>425</v>
       </c>
@@ -12329,7 +12326,7 @@
       <c r="W338"/>
       <c r="X338"/>
     </row>
-    <row r="339" ht="14.25" spans="1:16">
+    <row r="339" ht="14.25" hidden="1" spans="1:16">
       <c r="A339" s="51" t="s">
         <v>426</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="340" ht="14.25" spans="1:16">
+    <row r="340" ht="14.25" hidden="1" spans="1:16">
       <c r="A340" s="51" t="s">
         <v>428</v>
       </c>
@@ -12381,7 +12378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="341" ht="14.25" spans="1:16">
+    <row r="341" ht="14.25" hidden="1" spans="1:16">
       <c r="A341" s="51" t="s">
         <v>429</v>
       </c>
@@ -12405,7 +12402,7 @@
       </c>
       <c r="P341" s="35"/>
     </row>
-    <row r="342" ht="14.25" spans="1:16">
+    <row r="342" ht="14.25" hidden="1" spans="1:16">
       <c r="A342" s="59" t="s">
         <v>430</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="343" ht="14.25" spans="1:16">
+    <row r="343" ht="14.25" hidden="1" spans="1:16">
       <c r="A343" s="51" t="s">
         <v>431</v>
       </c>
@@ -12461,7 +12458,7 @@
       </c>
       <c r="P343" s="35"/>
     </row>
-    <row r="344" ht="14.25" spans="1:15">
+    <row r="344" ht="14.25" hidden="1" spans="1:15">
       <c r="A344" s="51" t="s">
         <v>432</v>
       </c>
@@ -12484,14 +12481,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" ht="14.25" spans="1:16">
-      <c r="A345" s="81" t="s">
+    <row r="345" ht="14.25" hidden="1" spans="1:16">
+      <c r="A345" s="80" t="s">
         <v>433</v>
       </c>
       <c r="D345" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="G345" s="71"/>
+      <c r="G345" s="70"/>
       <c r="H345" s="26" t="s">
         <v>22</v>
       </c>
@@ -12506,7 +12503,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="346" ht="14.25" spans="1:15">
+    <row r="346" ht="14.25" hidden="1" spans="1:15">
       <c r="A346" s="51" t="s">
         <v>436</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" ht="14.25" spans="1:15">
+    <row r="347" ht="14.25" hidden="1" spans="1:15">
       <c r="A347" s="51" t="s">
         <v>437</v>
       </c>
@@ -12552,7 +12549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" ht="14.25" spans="1:15">
+    <row r="348" ht="14.25" hidden="1" spans="1:15">
       <c r="A348" s="51" t="s">
         <v>438</v>
       </c>
@@ -12575,7 +12572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" ht="14.25" spans="1:15">
+    <row r="349" ht="14.25" hidden="1" spans="1:15">
       <c r="A349" s="51" t="s">
         <v>439</v>
       </c>
@@ -12601,7 +12598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" ht="14.25" spans="1:15">
+    <row r="350" ht="14.25" hidden="1" spans="1:15">
       <c r="A350" s="51" t="s">
         <v>440</v>
       </c>
@@ -12627,7 +12624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" ht="14.25" spans="1:15">
+    <row r="351" ht="14.25" hidden="1" spans="1:15">
       <c r="A351" s="51" t="s">
         <v>441</v>
       </c>
@@ -12650,7 +12647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" ht="14.25" spans="1:15">
+    <row r="352" ht="14.25" hidden="1" spans="1:15">
       <c r="A352" s="51" t="s">
         <v>442</v>
       </c>
@@ -12673,7 +12670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" ht="14.25" spans="1:15">
+    <row r="353" ht="14.25" hidden="1" spans="1:15">
       <c r="A353" s="51" t="s">
         <v>443</v>
       </c>
@@ -12696,7 +12693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" ht="14.25" spans="1:15">
+    <row r="354" ht="14.25" hidden="1" spans="1:15">
       <c r="A354" s="59" t="s">
         <v>444</v>
       </c>
@@ -12725,7 +12722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" ht="14.25" spans="1:15">
+    <row r="355" ht="14.25" hidden="1" spans="1:15">
       <c r="A355" s="59" t="s">
         <v>445</v>
       </c>
@@ -12754,7 +12751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" ht="14.25" spans="1:15">
+    <row r="356" ht="14.25" hidden="1" spans="1:15">
       <c r="A356" s="51" t="s">
         <v>446</v>
       </c>
@@ -12777,7 +12774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" s="70" customFormat="1" ht="14.25" spans="1:24">
+    <row r="357" s="69" customFormat="1" ht="14.25" hidden="1" spans="1:24">
       <c r="A357" s="59" t="s">
         <v>447</v>
       </c>
@@ -12821,7 +12818,7 @@
       <c r="W357"/>
       <c r="X357"/>
     </row>
-    <row r="358" ht="14.25" spans="1:15">
+    <row r="358" ht="14.25" hidden="1" spans="1:15">
       <c r="A358" s="59" t="s">
         <v>448</v>
       </c>
@@ -12847,7 +12844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" ht="14.25" spans="1:15">
+    <row r="359" ht="14.25" hidden="1" spans="1:15">
       <c r="A359" s="36" t="s">
         <v>449</v>
       </c>
@@ -12873,7 +12870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" ht="14.25" spans="1:15">
+    <row r="360" ht="14.25" hidden="1" spans="1:15">
       <c r="A360" s="51" t="s">
         <v>450</v>
       </c>
@@ -12899,7 +12896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" ht="14.25" spans="1:15">
+    <row r="361" ht="14.25" hidden="1" spans="1:15">
       <c r="A361" s="59" t="s">
         <v>451</v>
       </c>
@@ -12928,7 +12925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" ht="14.25" spans="1:15">
+    <row r="362" ht="14.25" hidden="1" spans="1:15">
       <c r="A362" s="51" t="s">
         <v>452</v>
       </c>
@@ -12951,7 +12948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" ht="14.25" spans="1:15">
+    <row r="363" ht="14.25" hidden="1" spans="1:15">
       <c r="A363" s="51" t="s">
         <v>453</v>
       </c>
@@ -12974,7 +12971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" ht="14.25" spans="1:15">
+    <row r="364" ht="14.25" hidden="1" spans="1:15">
       <c r="A364" s="51" t="s">
         <v>454</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" ht="14.25" spans="1:15">
+    <row r="365" ht="14.25" hidden="1" spans="1:15">
       <c r="A365" s="59" t="s">
         <v>455</v>
       </c>
@@ -13026,7 +13023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" ht="14.25" spans="1:15">
+    <row r="366" ht="14.25" hidden="1" spans="1:15">
       <c r="A366" s="51" t="s">
         <v>456</v>
       </c>
@@ -13049,7 +13046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" ht="14.25" spans="1:15">
+    <row r="367" ht="14.25" hidden="1" spans="1:15">
       <c r="A367" s="51" t="s">
         <v>457</v>
       </c>
@@ -13072,44 +13069,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" ht="14.25" spans="1:17">
+    <row r="368" ht="14.25" hidden="1" spans="1:17">
       <c r="A368" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="B368" s="70"/>
-      <c r="C368" s="70"/>
-      <c r="D368" s="70"/>
-      <c r="E368" s="70"/>
-      <c r="F368" s="70"/>
-      <c r="G368" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H368" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I368" s="83" t="s">
+      <c r="B368" s="69"/>
+      <c r="C368" s="69"/>
+      <c r="D368" s="69"/>
+      <c r="E368" s="69"/>
+      <c r="F368" s="69"/>
+      <c r="G368" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H368" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I368" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="J368" s="70"/>
+      <c r="J368" s="69"/>
       <c r="K368" s="54">
         <v>404</v>
       </c>
-      <c r="L368" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="M368" s="70"/>
-      <c r="N368" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="O368" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="P368" s="70" t="s">
+      <c r="L368" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="M368" s="69"/>
+      <c r="N368" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O368" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="P368" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="Q368" s="70"/>
-    </row>
-    <row r="369" ht="14.25" spans="1:15">
+      <c r="Q368" s="69"/>
+    </row>
+    <row r="369" ht="14.25" hidden="1" spans="1:15">
       <c r="A369" s="51" t="s">
         <v>460</v>
       </c>
@@ -13132,7 +13129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" ht="14.25" spans="1:15">
+    <row r="370" ht="14.25" hidden="1" spans="1:15">
       <c r="A370" s="59" t="s">
         <v>461</v>
       </c>
@@ -13158,7 +13155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" ht="14.25" spans="1:15">
+    <row r="371" ht="14.25" hidden="1" spans="1:15">
       <c r="A371" s="14" t="s">
         <v>462</v>
       </c>
@@ -13181,39 +13178,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" ht="14.25" spans="1:17">
+    <row r="372" ht="14.25" hidden="1" spans="1:17">
       <c r="A372" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="G372" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H372" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I372" s="83" t="s">
+      <c r="G372" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H372" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I372" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J372" s="70"/>
+      <c r="J372" s="69"/>
       <c r="K372" s="54">
         <v>404</v>
       </c>
       <c r="L372" s="49"/>
-      <c r="M372" s="70">
+      <c r="M372" s="69">
         <v>1</v>
       </c>
-      <c r="N372" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="O372" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="P372" s="70" t="s">
+      <c r="N372" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="O372" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="P372" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q372" s="70"/>
-    </row>
-    <row r="373" ht="14.25" spans="1:15">
+      <c r="Q372" s="69"/>
+    </row>
+    <row r="373" ht="14.25" hidden="1" spans="1:15">
       <c r="A373" s="14" t="s">
         <v>464</v>
       </c>
@@ -13236,7 +13233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" ht="14.25" spans="1:15">
+    <row r="374" ht="14.25" hidden="1" spans="1:15">
       <c r="A374" s="59" t="s">
         <v>465</v>
       </c>
@@ -13265,36 +13262,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" ht="14.25" spans="1:17">
+    <row r="375" ht="14.25" hidden="1" spans="1:17">
       <c r="A375" s="66" t="s">
         <v>466</v>
       </c>
       <c r="B375" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="G375" s="82"/>
-      <c r="H375" s="82"/>
-      <c r="I375" s="83" t="s">
+      <c r="G375" s="81"/>
+      <c r="H375" s="81"/>
+      <c r="I375" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J375" s="70"/>
+      <c r="J375" s="69"/>
       <c r="K375" s="54">
         <v>404</v>
       </c>
       <c r="L375" s="49"/>
-      <c r="M375" s="70"/>
-      <c r="N375" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="O375" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="P375" s="70" t="s">
+      <c r="M375" s="69"/>
+      <c r="N375" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="O375" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="P375" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q375" s="70"/>
-    </row>
-    <row r="376" ht="14.25" spans="1:15">
+      <c r="Q375" s="69"/>
+    </row>
+    <row r="376" ht="14.25" hidden="1" spans="1:15">
       <c r="A376" s="14" t="s">
         <v>467</v>
       </c>
@@ -13317,7 +13314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" ht="14.25" spans="1:15">
+    <row r="377" ht="14.25" hidden="1" spans="1:15">
       <c r="A377" s="14" t="s">
         <v>468</v>
       </c>
@@ -13340,7 +13337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" ht="14.25" spans="1:16">
+    <row r="378" ht="14.25" hidden="1" spans="1:16">
       <c r="A378" s="59" t="s">
         <v>469</v>
       </c>
@@ -13369,7 +13366,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="379" ht="14.25" spans="1:15">
+    <row r="379" ht="14.25" hidden="1" spans="1:15">
       <c r="A379" s="13" t="s">
         <v>471</v>
       </c>
@@ -13392,7 +13389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" ht="14.25" spans="1:16">
+    <row r="380" ht="14.25" hidden="1" spans="1:16">
       <c r="A380" s="13" t="s">
         <v>472</v>
       </c>
@@ -13418,7 +13415,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="381" ht="14.25" spans="1:15">
+    <row r="381" ht="14.25" hidden="1" spans="1:15">
       <c r="A381" s="13" t="s">
         <v>474</v>
       </c>
@@ -13441,7 +13438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" ht="14.25" spans="1:15">
+    <row r="382" ht="14.25" hidden="1" spans="1:15">
       <c r="A382" s="13" t="s">
         <v>475</v>
       </c>
@@ -13464,7 +13461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" ht="14.25" spans="1:15">
+    <row r="383" ht="14.25" hidden="1" spans="1:15">
       <c r="A383" s="13" t="s">
         <v>476</v>
       </c>
@@ -13487,7 +13484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" ht="14.25" spans="1:16">
+    <row r="384" ht="14.25" hidden="1" spans="1:16">
       <c r="A384" s="13" t="s">
         <v>477</v>
       </c>
@@ -13513,7 +13510,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="385" ht="14.25" spans="1:16">
+    <row r="385" ht="14.25" hidden="1" spans="1:16">
       <c r="A385" s="13" t="s">
         <v>478</v>
       </c>
@@ -13539,7 +13536,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="386" ht="14.25" spans="1:16">
+    <row r="386" ht="14.25" hidden="1" spans="1:16">
       <c r="A386" s="13" t="s">
         <v>479</v>
       </c>
@@ -13565,7 +13562,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="387" ht="14.25" spans="1:15">
+    <row r="387" ht="14.25" hidden="1" spans="1:15">
       <c r="A387" s="13" t="s">
         <v>480</v>
       </c>
@@ -13588,7 +13585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" ht="14.25" spans="1:15">
+    <row r="388" ht="14.25" hidden="1" spans="1:15">
       <c r="A388" s="13" t="s">
         <v>481</v>
       </c>
@@ -13611,7 +13608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" ht="14.25" spans="1:15">
+    <row r="389" ht="14.25" hidden="1" spans="1:15">
       <c r="A389" s="13" t="s">
         <v>482</v>
       </c>
@@ -13634,7 +13631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" ht="14.25" spans="1:16">
+    <row r="390" ht="14.25" hidden="1" spans="1:16">
       <c r="A390" s="13" t="s">
         <v>483</v>
       </c>
@@ -13660,7 +13657,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="391" ht="14.25" spans="1:16">
+    <row r="391" ht="14.25" hidden="1" spans="1:16">
       <c r="A391" s="13" t="s">
         <v>484</v>
       </c>
@@ -13686,7 +13683,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="392" ht="14.25" spans="1:16">
+    <row r="392" ht="14.25" hidden="1" spans="1:16">
       <c r="A392" s="13" t="s">
         <v>485</v>
       </c>
@@ -13712,7 +13709,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="393" ht="14.25" spans="1:16">
+    <row r="393" ht="14.25" hidden="1" spans="1:16">
       <c r="A393" s="13" t="s">
         <v>486</v>
       </c>
@@ -13738,7 +13735,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="394" ht="14.25" spans="1:15">
+    <row r="394" ht="14.25" hidden="1" spans="1:15">
       <c r="A394" s="20" t="s">
         <v>487</v>
       </c>
@@ -13762,6 +13759,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X394">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="m.2009goLf.com"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A1:A17 A19:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -13785,7 +13790,7 @@
   <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -13803,7 +13808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="69" customFormat="1" spans="1:2">
+    <row r="2" s="4" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -20173,8 +20178,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
